--- a/LitteUniversity_Tables.xlsx
+++ b/LitteUniversity_Tables.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d055092/Documents/Projects/LittleUniversity/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="5460" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="-38560" yWindow="7980" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Datatype</t>
   </si>
@@ -49,6 +57,15 @@
   </si>
   <si>
     <t>hana.VARCHAR(60)</t>
+  </si>
+  <si>
+    <t>UTCDatetime</t>
+  </si>
+  <si>
+    <t>StudentMatricleNumber</t>
+  </si>
+  <si>
+    <t>StudentBirthDate</t>
   </si>
 </sst>
 </file>
@@ -61,7 +78,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,12 +135,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,20 +471,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -477,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -491,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -502,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -510,16 +531,33 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/LitteUniversity_Tables.xlsx
+++ b/LitteUniversity_Tables.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38560" yWindow="7980" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-38660" yWindow="5640" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Entities" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Datatype</t>
   </si>
@@ -66,6 +66,42 @@
   </si>
   <si>
     <t>StudentBirthDate</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>AddressID</t>
+  </si>
+  <si>
+    <t>AddressCountry</t>
+  </si>
+  <si>
+    <t>hanaVARCHAR(60)</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>AddressState</t>
+  </si>
+  <si>
+    <t>AddressZIP</t>
+  </si>
+  <si>
+    <t>hanaVARCHAR(5)</t>
+  </si>
+  <si>
+    <t>AddressCity</t>
+  </si>
+  <si>
+    <t>AddressStreet</t>
+  </si>
+  <si>
+    <t>AddressStreetNumber</t>
+  </si>
+  <si>
+    <t>hanaVARCHAR(10)</t>
   </si>
 </sst>
 </file>
@@ -130,9 +166,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -471,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,6 +524,7 @@
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -494,7 +537,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -508,8 +551,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -554,6 +597,86 @@
       </c>
       <c r="C7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/LitteUniversity_Tables.xlsx
+++ b/LitteUniversity_Tables.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Datatype</t>
   </si>
@@ -102,6 +103,15 @@
   </si>
   <si>
     <t>hanaVARCHAR(10)</t>
+  </si>
+  <si>
+    <t>StudentHasAddress</t>
+  </si>
+  <si>
+    <t>AddressTypeID</t>
+  </si>
+  <si>
+    <t>AddressTypeName</t>
   </si>
 </sst>
 </file>
@@ -513,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,8 +689,73 @@
         <v>24</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>